--- a/result.xlsx
+++ b/result.xlsx
@@ -8,17 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Random MC vs. Random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Rule-based MC vs. Rulebased</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +27,26 @@
   </si>
   <si>
     <t>Random MC vs. Rule-based</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCS vs. Ruled-based</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCTS vs. Ruled-based</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 Reduced MC vs. Rulebased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 Reduced MC vs. Rulebased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25 Reduced MC vs. Rulebased</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +165,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -182,10 +200,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$AD$1</c:f>
+              <c:f>Sheet1!$B$1:$X$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -254,31 +272,13 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$X$3</c:f>
+              <c:f>Sheet1!$B$2:$X$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -366,11 +366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-871426992"/>
-        <c:axId val="-871426448"/>
+        <c:axId val="-824168752"/>
+        <c:axId val="-824159504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-871426992"/>
+        <c:axId val="-824168752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-871426448"/>
+        <c:crossAx val="-824159504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -421,7 +421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-871426448"/>
+        <c:axId val="-824159504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-871426992"/>
+        <c:crossAx val="-824168752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -577,7 +577,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -690,7 +690,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$X$4</c:f>
+              <c:f>Sheet1!$B$6:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -778,11 +778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862792736"/>
-        <c:axId val="-862780768"/>
+        <c:axId val="-824168208"/>
+        <c:axId val="-824163856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-862792736"/>
+        <c:axId val="-824168208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +825,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862780768"/>
+        <c:crossAx val="-824163856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -833,7 +833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-862780768"/>
+        <c:axId val="-824163856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +884,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862792736"/>
+        <c:crossAx val="-824168208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -989,7 +989,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1102,7 +1102,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$X$5</c:f>
+              <c:f>Sheet1!$B$7:$X$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1190,11 +1190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862796000"/>
-        <c:axId val="-862781312"/>
+        <c:axId val="-824156240"/>
+        <c:axId val="-824166576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-862796000"/>
+        <c:axId val="-824156240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1237,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862781312"/>
+        <c:crossAx val="-824166576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-862781312"/>
+        <c:axId val="-824166576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1296,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862796000"/>
+        <c:crossAx val="-824156240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2979,15 +2979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266698</xdr:colOff>
+      <xdr:colOff>171448</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3009,15 +3009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3039,15 +3039,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3356,19 +3356,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
-    <col min="2" max="30" width="5.625" customWidth="1"/>
+    <col min="2" max="24" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>0</v>
       </c>
@@ -3438,333 +3438,241 @@
       <c r="X1">
         <v>2000</v>
       </c>
-      <c r="Y1">
-        <v>2500</v>
-      </c>
-      <c r="Z1">
-        <v>3000</v>
-      </c>
-      <c r="AA1">
-        <v>3500</v>
-      </c>
-      <c r="AB1">
-        <v>4000</v>
-      </c>
-      <c r="AC1">
-        <v>4500</v>
-      </c>
-      <c r="AD1">
-        <v>5000</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
       <c r="D2">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F2">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H2">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="I2">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K2">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="L2">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="M2">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="N2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="O2">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="P2">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Q2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="R2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="S2">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="T2">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="U2">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="V2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="W2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="X2">
-        <v>95</v>
-      </c>
-      <c r="AD2">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>43</v>
+      </c>
+      <c r="G6">
+        <v>47</v>
+      </c>
+      <c r="H6">
+        <v>52</v>
+      </c>
+      <c r="I6">
+        <v>52</v>
+      </c>
+      <c r="J6">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>49</v>
+      </c>
+      <c r="L6">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>44</v>
+      </c>
+      <c r="N6">
+        <v>49</v>
+      </c>
+      <c r="O6">
+        <v>49</v>
+      </c>
+      <c r="P6">
+        <v>64</v>
+      </c>
+      <c r="Q6">
+        <v>54</v>
+      </c>
+      <c r="R6">
+        <v>70</v>
+      </c>
+      <c r="S6">
+        <v>57</v>
+      </c>
+      <c r="T6">
+        <v>69</v>
+      </c>
+      <c r="U6">
+        <v>65</v>
+      </c>
+      <c r="V6">
+        <v>67</v>
+      </c>
+      <c r="W6">
+        <v>71</v>
+      </c>
+      <c r="X6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>62</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>49</v>
+      </c>
+      <c r="G7">
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>49</v>
+      </c>
+      <c r="J7">
+        <v>53</v>
+      </c>
+      <c r="K7">
+        <v>52</v>
+      </c>
+      <c r="L7">
+        <v>52</v>
+      </c>
+      <c r="M7">
+        <v>52</v>
+      </c>
+      <c r="N7">
+        <v>41</v>
+      </c>
+      <c r="O7">
+        <v>45</v>
+      </c>
+      <c r="P7">
+        <v>36</v>
+      </c>
+      <c r="Q7">
+        <v>30</v>
+      </c>
+      <c r="R7">
         <v>44</v>
       </c>
-      <c r="C3">
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>63</v>
-      </c>
-      <c r="F3">
-        <v>64</v>
-      </c>
-      <c r="G3">
-        <v>62</v>
-      </c>
-      <c r="H3">
-        <v>61</v>
-      </c>
-      <c r="I3">
-        <v>63</v>
-      </c>
-      <c r="J3">
-        <v>68</v>
-      </c>
-      <c r="K3">
-        <v>64</v>
-      </c>
-      <c r="L3">
-        <v>66</v>
-      </c>
-      <c r="M3">
-        <v>66</v>
-      </c>
-      <c r="N3">
-        <v>74</v>
-      </c>
-      <c r="O3">
-        <v>71</v>
-      </c>
-      <c r="P3">
-        <v>68</v>
-      </c>
-      <c r="Q3">
-        <v>70</v>
-      </c>
-      <c r="R3">
-        <v>69</v>
-      </c>
-      <c r="S3">
-        <v>70</v>
-      </c>
-      <c r="T3">
-        <v>67</v>
-      </c>
-      <c r="U3">
-        <v>68</v>
-      </c>
-      <c r="V3">
-        <v>74</v>
-      </c>
-      <c r="W3">
-        <v>74</v>
-      </c>
-      <c r="X3">
-        <v>72</v>
-      </c>
-      <c r="Y3">
-        <v>73</v>
-      </c>
-      <c r="Z3">
-        <v>78</v>
-      </c>
-      <c r="AA3">
-        <v>76</v>
-      </c>
-      <c r="AB3">
-        <v>80</v>
-      </c>
-      <c r="AC3">
-        <v>68</v>
-      </c>
-      <c r="AD3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>46</v>
-      </c>
-      <c r="E4">
-        <v>48</v>
-      </c>
-      <c r="F4">
+      <c r="S7">
+        <v>45</v>
+      </c>
+      <c r="T7">
+        <v>36</v>
+      </c>
+      <c r="U7">
         <v>43</v>
       </c>
-      <c r="G4">
-        <v>47</v>
-      </c>
-      <c r="H4">
-        <v>52</v>
-      </c>
-      <c r="I4">
-        <v>52</v>
-      </c>
-      <c r="J4">
-        <v>48</v>
-      </c>
-      <c r="K4">
-        <v>49</v>
-      </c>
-      <c r="L4">
-        <v>60</v>
-      </c>
-      <c r="M4">
-        <v>44</v>
-      </c>
-      <c r="N4">
-        <v>49</v>
-      </c>
-      <c r="O4">
-        <v>49</v>
-      </c>
-      <c r="P4">
-        <v>64</v>
-      </c>
-      <c r="Q4">
-        <v>54</v>
-      </c>
-      <c r="R4">
-        <v>70</v>
-      </c>
-      <c r="S4">
-        <v>57</v>
-      </c>
-      <c r="T4">
-        <v>69</v>
-      </c>
-      <c r="U4">
-        <v>65</v>
-      </c>
-      <c r="V4">
-        <v>67</v>
-      </c>
-      <c r="W4">
-        <v>71</v>
-      </c>
-      <c r="X4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>55</v>
-      </c>
-      <c r="C5">
-        <v>51</v>
-      </c>
-      <c r="D5">
-        <v>62</v>
-      </c>
-      <c r="E5">
-        <v>42</v>
-      </c>
-      <c r="F5">
-        <v>49</v>
-      </c>
-      <c r="G5">
-        <v>52</v>
-      </c>
-      <c r="H5">
-        <v>55</v>
-      </c>
-      <c r="I5">
-        <v>49</v>
-      </c>
-      <c r="J5">
-        <v>53</v>
-      </c>
-      <c r="K5">
-        <v>52</v>
-      </c>
-      <c r="L5">
-        <v>52</v>
-      </c>
-      <c r="M5">
-        <v>52</v>
-      </c>
-      <c r="N5">
-        <v>41</v>
-      </c>
-      <c r="O5">
-        <v>45</v>
-      </c>
-      <c r="P5">
-        <v>36</v>
-      </c>
-      <c r="Q5">
-        <v>30</v>
-      </c>
-      <c r="R5">
-        <v>44</v>
-      </c>
-      <c r="S5">
-        <v>45</v>
-      </c>
-      <c r="T5">
-        <v>36</v>
-      </c>
-      <c r="U5">
-        <v>43</v>
-      </c>
-      <c r="V5">
+      <c r="V7">
         <v>28</v>
       </c>
-      <c r="W5">
+      <c r="W7">
         <v>33</v>
       </c>
-      <c r="X5">
+      <c r="X7">
         <v>39</v>
       </c>
     </row>
@@ -3774,4 +3682,188 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <v>20</v>
+      </c>
+      <c r="H1">
+        <v>40</v>
+      </c>
+      <c r="I1">
+        <v>50</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>73</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>53</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>65</v>
+      </c>
+      <c r="I2">
+        <v>65</v>
+      </c>
+      <c r="J2">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0.1</v>
+      </c>
+      <c r="D1">
+        <v>0.2</v>
+      </c>
+      <c r="E1">
+        <v>0.3</v>
+      </c>
+      <c r="F1">
+        <v>0.4</v>
+      </c>
+      <c r="G1">
+        <v>0.5</v>
+      </c>
+      <c r="H1">
+        <v>0.6</v>
+      </c>
+      <c r="I1">
+        <v>0.7</v>
+      </c>
+      <c r="J1">
+        <v>0.8</v>
+      </c>
+      <c r="K1">
+        <v>0.9</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>95+144</f>
+        <v>239</v>
+      </c>
+      <c r="C2">
+        <f xml:space="preserve"> 51 + 56 + 148</f>
+        <v>255</v>
+      </c>
+      <c r="D2">
+        <f xml:space="preserve"> 61 + 48 + 165</f>
+        <v>274</v>
+      </c>
+      <c r="E2">
+        <f xml:space="preserve"> 54 + 56 + 170</f>
+        <v>280</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> 60 + 56 + 178</f>
+        <v>294</v>
+      </c>
+      <c r="G2">
+        <f xml:space="preserve"> 61 + 66 + 198</f>
+        <v>325</v>
+      </c>
+      <c r="H2">
+        <f xml:space="preserve"> 56 + 66 + 170</f>
+        <v>292</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> 72 + 64 + 196</f>
+        <v>332</v>
+      </c>
+      <c r="J2">
+        <f xml:space="preserve"> 68 + 65 + 196</f>
+        <v>329</v>
+      </c>
+      <c r="K2">
+        <f xml:space="preserve"> 72 + 62 + 207</f>
+        <v>341</v>
+      </c>
+      <c r="L2">
+        <f xml:space="preserve"> 135 + 213</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Effect of iterNum on MCS" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Effect of p" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -165,7 +165,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Effect of iterNum on MCS'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -200,7 +200,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$X$1</c:f>
+              <c:f>'Effect of iterNum on MCS'!$B$1:$X$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -278,7 +278,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$X$2</c:f>
+              <c:f>'Effect of iterNum on MCS'!$B$2:$X$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -366,11 +366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-824168752"/>
-        <c:axId val="-824159504"/>
+        <c:axId val="478726336"/>
+        <c:axId val="478724704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-824168752"/>
+        <c:axId val="478726336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-824159504"/>
+        <c:crossAx val="478724704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -421,7 +421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-824159504"/>
+        <c:axId val="478724704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-824168752"/>
+        <c:crossAx val="478726336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -577,7 +577,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>'Effect of iterNum on MCS'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -612,7 +612,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$X$1</c:f>
+              <c:f>'Effect of iterNum on MCS'!$B$1:$X$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -690,7 +690,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$X$6</c:f>
+              <c:f>'Effect of iterNum on MCS'!$B$6:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -778,11 +778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-824168208"/>
-        <c:axId val="-824163856"/>
+        <c:axId val="478712736"/>
+        <c:axId val="478716544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-824168208"/>
+        <c:axId val="478712736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +825,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-824163856"/>
+        <c:crossAx val="478716544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -833,7 +833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-824163856"/>
+        <c:axId val="478716544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +884,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-824168208"/>
+        <c:crossAx val="478712736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -989,7 +989,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>'Effect of iterNum on MCS'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1024,7 +1024,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$X$1</c:f>
+              <c:f>'Effect of iterNum on MCS'!$B$1:$X$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1102,7 +1102,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$X$7</c:f>
+              <c:f>'Effect of iterNum on MCS'!$B$7:$X$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1190,11 +1190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-824156240"/>
-        <c:axId val="-824166576"/>
+        <c:axId val="478720352"/>
+        <c:axId val="545793104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-824156240"/>
+        <c:axId val="478720352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1237,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-824166576"/>
+        <c:crossAx val="545793104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-824166576"/>
+        <c:axId val="545793104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1296,334 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-824156240"/>
+        <c:crossAx val="478720352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Effect of p'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCS vs. Ruled-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Effect of p'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Effect of p'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="564124688"/>
+        <c:axId val="564125232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="564124688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564125232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564125232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564124688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1465,6 +1792,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2621,6 +2988,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3009,15 +3892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3061,6 +3944,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3359,7 +4277,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3517,15 +4435,222 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>59</v>
+      </c>
+      <c r="F3">
+        <v>63</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>59</v>
+      </c>
+      <c r="I3">
+        <v>63</v>
+      </c>
+      <c r="J3">
+        <v>58</v>
+      </c>
+      <c r="K3">
+        <v>59</v>
+      </c>
+      <c r="L3">
+        <v>72</v>
+      </c>
+      <c r="M3">
+        <v>62</v>
+      </c>
+      <c r="N3">
+        <v>63</v>
+      </c>
+      <c r="O3">
+        <v>81</v>
+      </c>
+      <c r="P3">
+        <v>68</v>
+      </c>
+      <c r="Q3">
+        <v>78</v>
+      </c>
+      <c r="R3">
+        <v>80</v>
+      </c>
+      <c r="S3">
+        <v>75</v>
+      </c>
+      <c r="T3">
+        <v>79</v>
+      </c>
+      <c r="U3">
+        <v>84</v>
+      </c>
+      <c r="V3">
+        <v>85</v>
+      </c>
+      <c r="W3">
+        <v>80</v>
+      </c>
+      <c r="X3">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <v>53</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>64</v>
+      </c>
+      <c r="K4">
+        <v>53</v>
+      </c>
+      <c r="L4">
+        <v>64</v>
+      </c>
+      <c r="M4">
+        <v>73</v>
+      </c>
+      <c r="N4">
+        <v>79</v>
+      </c>
+      <c r="O4">
+        <v>67</v>
+      </c>
+      <c r="P4">
+        <v>63</v>
+      </c>
+      <c r="Q4">
+        <v>77</v>
+      </c>
+      <c r="R4">
+        <v>71</v>
+      </c>
+      <c r="S4">
+        <v>73</v>
+      </c>
+      <c r="T4">
+        <v>73</v>
+      </c>
+      <c r="U4">
+        <v>77</v>
+      </c>
+      <c r="V4">
+        <v>77</v>
+      </c>
+      <c r="W4">
+        <v>75</v>
+      </c>
+      <c r="X4">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>51</v>
+      </c>
+      <c r="H5">
+        <v>47</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>63</v>
+      </c>
+      <c r="K5">
+        <v>59</v>
+      </c>
+      <c r="L5">
+        <v>57</v>
+      </c>
+      <c r="M5">
+        <v>58</v>
+      </c>
+      <c r="N5">
+        <v>65</v>
+      </c>
+      <c r="O5">
+        <v>62</v>
+      </c>
+      <c r="P5">
+        <v>63</v>
+      </c>
+      <c r="Q5">
+        <v>71</v>
+      </c>
+      <c r="R5">
+        <v>73</v>
+      </c>
+      <c r="S5">
+        <v>64</v>
+      </c>
+      <c r="T5">
+        <v>72</v>
+      </c>
+      <c r="U5">
+        <v>64</v>
+      </c>
+      <c r="V5">
+        <v>70</v>
+      </c>
+      <c r="W5">
+        <v>72</v>
+      </c>
+      <c r="X5">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
@@ -3764,7 +4889,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3865,5 +4990,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Effect of iterNum on MCS" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Rule-based MC vs. Rulebased</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,26 @@
   </si>
   <si>
     <t>0.25 Reduced MC vs. Rulebased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Deter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#IterNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Deter = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#IterNum * #Deter = 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#IterNum = 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +144,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -366,11 +385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478726336"/>
-        <c:axId val="478724704"/>
+        <c:axId val="1610809568"/>
+        <c:axId val="1610822080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478726336"/>
+        <c:axId val="1610809568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +432,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478724704"/>
+        <c:crossAx val="1610822080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -421,7 +440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478724704"/>
+        <c:axId val="1610822080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +491,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478726336"/>
+        <c:crossAx val="1610809568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -536,7 +555,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -778,11 +796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478712736"/>
-        <c:axId val="478716544"/>
+        <c:axId val="1610821536"/>
+        <c:axId val="1610815008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478712736"/>
+        <c:axId val="1610821536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +843,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478716544"/>
+        <c:crossAx val="1610815008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -833,7 +851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478716544"/>
+        <c:axId val="1610815008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +902,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478712736"/>
+        <c:crossAx val="1610821536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,7 +966,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1190,11 +1207,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478720352"/>
-        <c:axId val="545793104"/>
+        <c:axId val="1610823168"/>
+        <c:axId val="1610820448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478720352"/>
+        <c:axId val="1610823168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1254,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545793104"/>
+        <c:crossAx val="1610820448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="545793104"/>
+        <c:axId val="1610820448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1313,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478720352"/>
+        <c:crossAx val="1610823168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1360,7 +1377,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1517,11 +1533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="564124688"/>
-        <c:axId val="564125232"/>
+        <c:axId val="1610812288"/>
+        <c:axId val="1610824800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="564124688"/>
+        <c:axId val="1610812288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1580,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564125232"/>
+        <c:crossAx val="1610824800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1572,7 +1588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="564125232"/>
+        <c:axId val="1610824800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1639,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564124688"/>
+        <c:crossAx val="1610812288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4276,7 +4292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
@@ -4811,15 +4827,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="11" max="11" width="21.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1">
         <v>1</v>
       </c>
@@ -4847,8 +4870,44 @@
       <c r="J1">
         <v>100</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>5</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>20</v>
+      </c>
+      <c r="P1">
+        <v>30</v>
+      </c>
+      <c r="Q1">
+        <v>40</v>
+      </c>
+      <c r="R1">
+        <v>50</v>
+      </c>
+      <c r="S1">
+        <v>100</v>
+      </c>
+      <c r="T1">
+        <v>150</v>
+      </c>
+      <c r="U1">
+        <v>200</v>
+      </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2">
         <v>59</v>
       </c>
@@ -4875,6 +4934,26 @@
       </c>
       <c r="J2">
         <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>49</v>
+      </c>
+      <c r="N2">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -385,11 +385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1610809568"/>
-        <c:axId val="1610822080"/>
+        <c:axId val="-1514692272"/>
+        <c:axId val="-1514682480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1610809568"/>
+        <c:axId val="-1514692272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +432,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610822080"/>
+        <c:crossAx val="-1514682480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -440,7 +440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1610822080"/>
+        <c:axId val="-1514682480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,7 +491,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610809568"/>
+        <c:crossAx val="-1514692272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -796,11 +796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1610821536"/>
-        <c:axId val="1610815008"/>
+        <c:axId val="-1514694992"/>
+        <c:axId val="-1514680304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1610821536"/>
+        <c:axId val="-1514694992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610815008"/>
+        <c:crossAx val="-1514680304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,7 +851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1610815008"/>
+        <c:axId val="-1514680304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +902,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610821536"/>
+        <c:crossAx val="-1514694992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1207,11 +1207,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1610823168"/>
-        <c:axId val="1610820448"/>
+        <c:axId val="-1514689008"/>
+        <c:axId val="-1514685200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1610823168"/>
+        <c:axId val="-1514689008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1254,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610820448"/>
+        <c:crossAx val="-1514685200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1262,7 +1262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1610820448"/>
+        <c:axId val="-1514685200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1313,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610823168"/>
+        <c:crossAx val="-1514689008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,11 +1533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1610812288"/>
-        <c:axId val="1610824800"/>
+        <c:axId val="-1604193248"/>
+        <c:axId val="-1604207392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1610812288"/>
+        <c:axId val="-1604193248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1580,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610824800"/>
+        <c:crossAx val="-1604207392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1588,7 +1588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1610824800"/>
+        <c:axId val="-1604207392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1639,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610812288"/>
+        <c:crossAx val="-1604193248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4830,7 +4830,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4949,6 +4949,18 @@
       </c>
       <c r="O2">
         <v>47</v>
+      </c>
+      <c r="P2">
+        <v>55</v>
+      </c>
+      <c r="Q2">
+        <v>66</v>
+      </c>
+      <c r="R2">
+        <v>56</v>
+      </c>
+      <c r="S2">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">

--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Effect of iterNum on MCS" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,868 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Effect of iterNum on MCS'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rule-based MC vs. Rulebased</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Effect of iterNum on MCS'!$B$1:$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Effect of iterNum on MCS'!$B$2:$X$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Effect of iterNum on MCS'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random MC vs. Rule-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Effect of iterNum on MCS'!$B$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Effect of iterNum on MCS'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25 Reduced MC vs. Rulebased</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Effect of iterNum on MCS'!$B$5:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Effect of iterNum on MCS'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5 Reduced MC vs. Rulebased</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Effect of iterNum on MCS'!$B$4:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Effect of iterNum on MCS'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.75 Reduced MC vs. Rulebased</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Effect of iterNum on MCS'!$B$3:$X$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-680991056"/>
+        <c:axId val="-680995408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-680991056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-680995408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-680995408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-680991056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -184,11 +1045,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Effect of iterNum on MCS'!$A$2</c:f>
+              <c:f>'Effect of iterNum on MCS'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rule-based MC vs. Rulebased</c:v>
+                  <c:v>Random MC vs. Rule-based MC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -297,78 +1158,78 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Effect of iterNum on MCS'!$B$2:$X$2</c:f>
+              <c:f>'Effect of iterNum on MCS'!$B$7:$X$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>70</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>68</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>74</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>72</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,11 +1246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1514692272"/>
-        <c:axId val="-1514682480"/>
+        <c:axId val="-680989968"/>
+        <c:axId val="-680994320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1514692272"/>
+        <c:axId val="-680989968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +1293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514682480"/>
+        <c:crossAx val="-680994320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -440,7 +1301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1514682480"/>
+        <c:axId val="-680994320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,418 +1352,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514692272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Effect of iterNum on MCS'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random MC vs. Rule-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Effect of iterNum on MCS'!$B$1:$X$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Effect of iterNum on MCS'!$B$6:$X$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1514694992"/>
-        <c:axId val="-1514680304"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1514694992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1514680304"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1514680304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1514694992"/>
+        <c:crossAx val="-680989968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1006,11 +1456,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Effect of iterNum on MCS'!$A$7</c:f>
+              <c:f>'Effect of p'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Random MC vs. Rule-based MC</c:v>
+                  <c:v>MCS vs. Ruled-based</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1025,172 +1475,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Effect of iterNum on MCS'!$B$1:$X$1</c:f>
+              <c:f>'Effect of p'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Effect of iterNum on MCS'!$B$7:$X$7</c:f>
+              <c:f>'Effect of p'!$B$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>39</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,13 +1571,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1514689008"/>
-        <c:axId val="-1514685200"/>
+        <c:axId val="-680997584"/>
+        <c:axId val="-681004656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1514689008"/>
+        <c:axId val="-680997584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1619,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514685200"/>
+        <c:crossAx val="-681004656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1262,7 +1627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1514685200"/>
+        <c:axId val="-681004656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,333 +1678,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514689008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Effect of p'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MCS vs. Ruled-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Effect of p'!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Effect of p'!$B$2:$L$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>348</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-1604193248"/>
-        <c:axId val="-1604207392"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1604193248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1604207392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1604207392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1604193248"/>
+        <c:crossAx val="-680997584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,47 +1847,528 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2351,1013 +2871,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3908,45 +3422,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>190498</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3959,7 +3443,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4292,8 +3776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4378,73 +3862,96 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <f xml:space="preserve"> 44 + 47 + 59 + 102</f>
+        <v>252</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <f xml:space="preserve"> 55 + 57 + 54 + 119</f>
+        <v>285</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <f xml:space="preserve"> 60 + 59 + 56 + 122</f>
+        <v>297</v>
       </c>
       <c r="E2">
-        <v>63</v>
+        <f xml:space="preserve"> 63 + 57 + 55 + 117</f>
+        <v>292</v>
       </c>
       <c r="F2">
-        <v>64</v>
+        <f xml:space="preserve"> 64 + 57 + 62 + 122</f>
+        <v>305</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <f xml:space="preserve"> 62 + 56 + 53 + 125</f>
+        <v>296</v>
       </c>
       <c r="H2">
-        <v>61</v>
+        <f xml:space="preserve"> 61 + 61 + 64 + 125</f>
+        <v>311</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <f xml:space="preserve"> 63 + 70 + 66 + 132</f>
+        <v>331</v>
       </c>
       <c r="J2">
-        <v>68</v>
+        <f xml:space="preserve"> 68 + 58 + 64 + 123</f>
+        <v>313</v>
       </c>
       <c r="K2">
-        <v>64</v>
+        <f xml:space="preserve"> 64 + 52 + 60 + 111</f>
+        <v>287</v>
       </c>
       <c r="L2">
-        <v>66</v>
+        <f xml:space="preserve"> 66 + 62 + 70 + 134</f>
+        <v>332</v>
       </c>
       <c r="M2">
-        <v>66</v>
+        <f xml:space="preserve"> 66 + 68 + 66 + 128</f>
+        <v>328</v>
       </c>
       <c r="N2">
-        <v>74</v>
+        <f xml:space="preserve"> 74 + 60 + 67 + 129</f>
+        <v>330</v>
       </c>
       <c r="O2">
-        <v>71</v>
+        <f xml:space="preserve"> 71 + 71 + 66 + 126</f>
+        <v>334</v>
       </c>
       <c r="P2">
-        <v>68</v>
+        <f xml:space="preserve"> 68 + 68 + 63 + 134</f>
+        <v>333</v>
       </c>
       <c r="Q2">
-        <v>70</v>
+        <f xml:space="preserve"> 70 + 77 + 70 + 129</f>
+        <v>346</v>
       </c>
       <c r="R2">
-        <v>69</v>
+        <f xml:space="preserve"> 69 + 65 + 70 + 136</f>
+        <v>340</v>
       </c>
       <c r="S2">
-        <v>70</v>
+        <f xml:space="preserve"> 70 + 65 + 70 + 139</f>
+        <v>344</v>
       </c>
       <c r="T2">
-        <v>67</v>
+        <f xml:space="preserve"> 67 + 65 + 73 + 128</f>
+        <v>333</v>
       </c>
       <c r="U2">
-        <v>68</v>
+        <f xml:space="preserve"> 68 + 66 + 63 + 142</f>
+        <v>339</v>
       </c>
       <c r="V2">
-        <v>74</v>
+        <f xml:space="preserve"> 74 + 72 + 72 + 152</f>
+        <v>370</v>
       </c>
       <c r="W2">
-        <v>74</v>
+        <f xml:space="preserve"> 74 + 67 + 68 + 128</f>
+        <v>337</v>
       </c>
       <c r="X2">
-        <v>72</v>
+        <f xml:space="preserve"> 72 + 69 + 66 + 129</f>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
@@ -4526,73 +4033,96 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <f xml:space="preserve"> 46 + 62</f>
+        <v>108</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <f xml:space="preserve"> 38 + 71</f>
+        <v>109</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <f xml:space="preserve"> 49 + 66</f>
+        <v>115</v>
       </c>
       <c r="E4">
-        <v>55</v>
+        <f xml:space="preserve"> 55 + 76</f>
+        <v>131</v>
       </c>
       <c r="F4">
-        <v>55</v>
+        <f xml:space="preserve"> 55 + 88</f>
+        <v>143</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <f xml:space="preserve"> 49 + 74</f>
+        <v>123</v>
       </c>
       <c r="H4">
-        <v>53</v>
+        <f xml:space="preserve"> 53 + 88</f>
+        <v>141</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <f xml:space="preserve"> 60 + 97</f>
+        <v>157</v>
       </c>
       <c r="J4">
-        <v>64</v>
+        <f xml:space="preserve"> 64 + 91</f>
+        <v>155</v>
       </c>
       <c r="K4">
-        <v>53</v>
+        <f xml:space="preserve"> 53 + 100</f>
+        <v>153</v>
       </c>
       <c r="L4">
-        <v>64</v>
+        <f xml:space="preserve"> 64 + 96</f>
+        <v>160</v>
       </c>
       <c r="M4">
-        <v>73</v>
+        <f xml:space="preserve"> 73 + 109</f>
+        <v>182</v>
       </c>
       <c r="N4">
-        <v>79</v>
+        <f xml:space="preserve"> 79 + 99</f>
+        <v>178</v>
       </c>
       <c r="O4">
-        <v>67</v>
+        <f xml:space="preserve"> 67 + 106</f>
+        <v>173</v>
       </c>
       <c r="P4">
-        <v>63</v>
+        <f xml:space="preserve"> 63 + 99</f>
+        <v>162</v>
       </c>
       <c r="Q4">
-        <v>77</v>
+        <f xml:space="preserve"> 77 + 109</f>
+        <v>186</v>
       </c>
       <c r="R4">
-        <v>71</v>
+        <f xml:space="preserve"> 71 + 109</f>
+        <v>180</v>
       </c>
       <c r="S4">
-        <v>73</v>
+        <f xml:space="preserve"> 73 + 113</f>
+        <v>186</v>
       </c>
       <c r="T4">
-        <v>73</v>
+        <f xml:space="preserve"> 73 + 110</f>
+        <v>183</v>
       </c>
       <c r="U4">
-        <v>77</v>
+        <f xml:space="preserve"> 77 + 110</f>
+        <v>187</v>
       </c>
       <c r="V4">
-        <v>77</v>
+        <f xml:space="preserve"> 77 + 112</f>
+        <v>189</v>
       </c>
       <c r="W4">
-        <v>75</v>
+        <f xml:space="preserve"> 75 + 121</f>
+        <v>196</v>
       </c>
       <c r="X4">
-        <v>81</v>
+        <f xml:space="preserve"> 81 + 109</f>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
@@ -4600,73 +4130,96 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <f xml:space="preserve"> 40 + 59</f>
+        <v>99</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <f xml:space="preserve"> 39 + 63</f>
+        <v>102</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <f xml:space="preserve"> 33 + 69</f>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <f xml:space="preserve"> 45 + 66</f>
+        <v>111</v>
       </c>
       <c r="F5">
-        <v>51</v>
+        <f xml:space="preserve"> 51 + 67</f>
+        <v>118</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <f xml:space="preserve"> 51 + 79</f>
+        <v>130</v>
       </c>
       <c r="H5">
-        <v>47</v>
+        <f xml:space="preserve"> 47 + 82</f>
+        <v>129</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <f xml:space="preserve"> 50 + 66</f>
+        <v>116</v>
       </c>
       <c r="J5">
-        <v>63</v>
+        <f xml:space="preserve"> 63 + 94</f>
+        <v>157</v>
       </c>
       <c r="K5">
-        <v>59</v>
+        <f xml:space="preserve"> 59 + 75</f>
+        <v>134</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <f xml:space="preserve"> 57 + 89</f>
+        <v>146</v>
       </c>
       <c r="M5">
-        <v>58</v>
+        <f xml:space="preserve"> 58 + 86</f>
+        <v>144</v>
       </c>
       <c r="N5">
-        <v>65</v>
+        <f xml:space="preserve"> 65 + 99</f>
+        <v>164</v>
       </c>
       <c r="O5">
-        <v>62</v>
+        <f xml:space="preserve"> 62 + 95</f>
+        <v>157</v>
       </c>
       <c r="P5">
-        <v>63</v>
+        <f xml:space="preserve"> 63 + 101</f>
+        <v>164</v>
       </c>
       <c r="Q5">
-        <v>71</v>
+        <f xml:space="preserve"> 71 + 101</f>
+        <v>172</v>
       </c>
       <c r="R5">
-        <v>73</v>
+        <f xml:space="preserve"> 73 + 104</f>
+        <v>177</v>
       </c>
       <c r="S5">
-        <v>64</v>
+        <f xml:space="preserve"> 64 + 95</f>
+        <v>159</v>
       </c>
       <c r="T5">
-        <v>72</v>
+        <f xml:space="preserve"> 72 + 115</f>
+        <v>187</v>
       </c>
       <c r="U5">
-        <v>64</v>
+        <f xml:space="preserve"> 64 + 107</f>
+        <v>171</v>
       </c>
       <c r="V5">
-        <v>70</v>
+        <f xml:space="preserve"> 70 + 101</f>
+        <v>171</v>
       </c>
       <c r="W5">
-        <v>72</v>
+        <f xml:space="preserve"> 72 + 108</f>
+        <v>180</v>
       </c>
       <c r="X5">
-        <v>66</v>
+        <f xml:space="preserve"> 66 + 118</f>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
@@ -4674,73 +4227,96 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <f xml:space="preserve"> 38 + 55</f>
+        <v>93</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <f xml:space="preserve"> 40 + 58</f>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <f xml:space="preserve"> 46 + 62</f>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>48</v>
+        <f xml:space="preserve"> 48 + 51</f>
+        <v>99</v>
       </c>
       <c r="F6">
-        <v>43</v>
+        <f xml:space="preserve"> 43 + 60</f>
+        <v>103</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <f xml:space="preserve"> 47 + 74</f>
+        <v>121</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <f xml:space="preserve"> 52 + 68</f>
+        <v>120</v>
       </c>
       <c r="I6">
-        <v>52</v>
+        <f xml:space="preserve"> 52 + 67</f>
+        <v>119</v>
       </c>
       <c r="J6">
-        <v>48</v>
+        <f xml:space="preserve"> 48 + 77</f>
+        <v>125</v>
       </c>
       <c r="K6">
-        <v>49</v>
+        <f xml:space="preserve"> 49 + 76</f>
+        <v>125</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <f xml:space="preserve"> 60 + 66</f>
+        <v>126</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <f xml:space="preserve"> 44 + 81</f>
+        <v>125</v>
       </c>
       <c r="N6">
-        <v>49</v>
+        <f xml:space="preserve"> 49 + 73</f>
+        <v>122</v>
       </c>
       <c r="O6">
-        <v>49</v>
+        <f xml:space="preserve"> 49 + 86</f>
+        <v>135</v>
       </c>
       <c r="P6">
-        <v>64</v>
+        <f xml:space="preserve"> 64 + 79</f>
+        <v>143</v>
       </c>
       <c r="Q6">
-        <v>54</v>
+        <f xml:space="preserve"> 54 + 89</f>
+        <v>143</v>
       </c>
       <c r="R6">
-        <v>70</v>
+        <f xml:space="preserve"> 70 + 93</f>
+        <v>163</v>
       </c>
       <c r="S6">
-        <v>57</v>
+        <f xml:space="preserve"> 57 + 99</f>
+        <v>156</v>
       </c>
       <c r="T6">
-        <v>69</v>
+        <f xml:space="preserve"> 69 + 90</f>
+        <v>159</v>
       </c>
       <c r="U6">
-        <v>65</v>
+        <f xml:space="preserve"> 65 + 85</f>
+        <v>150</v>
       </c>
       <c r="V6">
-        <v>67</v>
+        <f xml:space="preserve"> 67 + 90</f>
+        <v>157</v>
       </c>
       <c r="W6">
-        <v>71</v>
+        <f xml:space="preserve"> 71 + 93</f>
+        <v>164</v>
       </c>
       <c r="X6">
-        <v>63</v>
+        <f xml:space="preserve"> 63 + 106</f>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
@@ -4829,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Effect of iterNum on MCS" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Effect of p" sheetId="3" r:id="rId3"/>
+    <sheet name="Effect of p" sheetId="3" r:id="rId2"/>
+    <sheet name="sheet 2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Rule-based MC vs. Rulebased</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,14 +27,6 @@
   </si>
   <si>
     <t>Random MC vs. Rule-based</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCS vs. Ruled-based</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCTS vs. Ruled-based</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -67,6 +59,18 @@
   </si>
   <si>
     <t>#IterNum = 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IterNum = 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IterNum = 2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IterNum = 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +149,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0341337670427732E-2"/>
+          <c:y val="0.12076548869280904"/>
+          <c:w val="0.95092921726392943"/>
+          <c:h val="0.8241319257777705"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -153,15 +167,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Effect of iterNum on MCS'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rule-based MC vs. Rulebased</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>p = 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -273,73 +279,182 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>252</c:v>
+                  <c:v>50.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>285</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>297</c:v>
+                  <c:v>59.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>292</c:v>
+                  <c:v>58.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>305</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>296</c:v>
+                  <c:v>59.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>311</c:v>
+                  <c:v>62.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>331</c:v>
+                  <c:v>66.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>313</c:v>
+                  <c:v>62.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>287</c:v>
+                  <c:v>57.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>332</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>328</c:v>
+                  <c:v>65.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>330</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>334</c:v>
+                  <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>333</c:v>
+                  <c:v>66.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>346</c:v>
+                  <c:v>69.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>340</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>344</c:v>
+                  <c:v>68.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>333</c:v>
+                  <c:v>66.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>339</c:v>
+                  <c:v>67.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>370</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>337</c:v>
+                  <c:v>67.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>336</c:v>
+                  <c:v>67.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>p = 0.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Effect of iterNum on MCS'!$B$4:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>77.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -348,17 +463,9 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Effect of iterNum on MCS'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random MC vs. Rule-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>p = 0</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -392,426 +499,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>36.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>42.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121</c:v>
+                  <c:v>45.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>49.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>119</c:v>
+                  <c:v>45.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125</c:v>
+                  <c:v>48.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>125</c:v>
+                  <c:v>51.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126</c:v>
+                  <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>125</c:v>
+                  <c:v>47.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>122</c:v>
+                  <c:v>52.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>135</c:v>
+                  <c:v>50.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>143</c:v>
+                  <c:v>55.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>143</c:v>
+                  <c:v>57.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>163</c:v>
+                  <c:v>61.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>156</c:v>
+                  <c:v>61.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>159</c:v>
+                  <c:v>61.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>150</c:v>
+                  <c:v>61.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>157</c:v>
+                  <c:v>62.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>164</c:v>
+                  <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>169</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Effect of iterNum on MCS'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.25 Reduced MC vs. Rulebased</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Effect of iterNum on MCS'!$B$5:$X$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>184</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Effect of iterNum on MCS'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.5 Reduced MC vs. Rulebased</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Effect of iterNum on MCS'!$B$4:$X$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>190</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Effect of iterNum on MCS'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.75 Reduced MC vs. Rulebased</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Effect of iterNum on MCS'!$B$3:$X$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>76</c:v>
+                  <c:v>64.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,11 +582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-680991056"/>
-        <c:axId val="-680995408"/>
+        <c:axId val="-707261888"/>
+        <c:axId val="-707262432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-680991056"/>
+        <c:axId val="-707261888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,16 +624,18 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -889,7 +645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-680995408"/>
+        <c:crossAx val="-707262432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -897,9 +653,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-680995408"/>
+        <c:axId val="-707262432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -940,9 +698,10 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-680991056"/>
+        <c:crossAx val="-707261888"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -952,6 +711,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.792185180832571E-4"/>
+          <c:y val="4.5169259450490793E-4"/>
+          <c:w val="0.99922078148191673"/>
+          <c:h val="0.12768422915235109"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -990,418 +790,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Effect of iterNum on MCS'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random MC vs. Rule-based MC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Effect of iterNum on MCS'!$B$1:$X$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Effect of iterNum on MCS'!$B$7:$X$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-680989968"/>
-        <c:axId val="-680994320"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-680989968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-680994320"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-680994320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-680989968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1456,11 +844,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Effect of p'!$A$2</c:f>
+              <c:f>'Effect of iterNum on MCS'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MCS vs. Ruled-based</c:v>
+                  <c:v>Random MC vs. Rule-based MC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1475,88 +863,172 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Effect of p'!$B$1:$L$1</c:f>
+              <c:f>'Effect of iterNum on MCS'!$B$1:$X$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Effect of p'!$B$2:$L$2</c:f>
+              <c:f>'Effect of iterNum on MCS'!$B$8:$X$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>239</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>274</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>280</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>294</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>325</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>292</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>332</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>329</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>341</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>348</c:v>
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,12 +1043,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-680997584"/>
-        <c:axId val="-681004656"/>
+        <c:axId val="-707260800"/>
+        <c:axId val="-707252096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-680997584"/>
+        <c:axId val="-707260800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +1092,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681004656"/>
+        <c:crossAx val="-707252096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1627,7 +1100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-681004656"/>
+        <c:axId val="-707252096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +1151,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-680997584"/>
+        <c:crossAx val="-707260800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1807,46 +1280,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -2518,522 +1951,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3392,15 +2309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171448</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3421,16 +2338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380997</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3444,41 +2361,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3774,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3862,364 +2744,387 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f xml:space="preserve"> 44 + 47 + 59 + 102</f>
-        <v>252</v>
+        <f xml:space="preserve"> (44 + 47 + 59 + 102) / 5</f>
+        <v>50.4</v>
       </c>
       <c r="C2">
-        <f xml:space="preserve"> 55 + 57 + 54 + 119</f>
-        <v>285</v>
+        <f xml:space="preserve"> (55 + 57 + 54 + 119) / 5</f>
+        <v>57</v>
       </c>
       <c r="D2">
-        <f xml:space="preserve"> 60 + 59 + 56 + 122</f>
-        <v>297</v>
+        <f xml:space="preserve"> (60 + 59 + 56 + 122) / 5</f>
+        <v>59.4</v>
       </c>
       <c r="E2">
-        <f xml:space="preserve"> 63 + 57 + 55 + 117</f>
-        <v>292</v>
+        <f xml:space="preserve"> (63 + 57 + 55 + 117) / 5</f>
+        <v>58.4</v>
       </c>
       <c r="F2">
-        <f xml:space="preserve"> 64 + 57 + 62 + 122</f>
-        <v>305</v>
+        <f xml:space="preserve"> (64 + 57 + 62 + 122) / 5</f>
+        <v>61</v>
       </c>
       <c r="G2">
-        <f xml:space="preserve"> 62 + 56 + 53 + 125</f>
-        <v>296</v>
+        <f xml:space="preserve"> (62 + 56 + 53 + 125) / 5</f>
+        <v>59.2</v>
       </c>
       <c r="H2">
-        <f xml:space="preserve"> 61 + 61 + 64 + 125</f>
-        <v>311</v>
+        <f xml:space="preserve"> (61 + 61 + 64 + 125) / 5</f>
+        <v>62.2</v>
       </c>
       <c r="I2">
-        <f xml:space="preserve"> 63 + 70 + 66 + 132</f>
-        <v>331</v>
+        <f xml:space="preserve"> (63 + 70 + 66 + 132) / 5</f>
+        <v>66.2</v>
       </c>
       <c r="J2">
-        <f xml:space="preserve"> 68 + 58 + 64 + 123</f>
-        <v>313</v>
+        <f xml:space="preserve"> (68 + 58 + 64 + 123) / 5</f>
+        <v>62.6</v>
       </c>
       <c r="K2">
-        <f xml:space="preserve"> 64 + 52 + 60 + 111</f>
-        <v>287</v>
+        <f xml:space="preserve"> (64 + 52 + 60 + 111) / 5</f>
+        <v>57.4</v>
       </c>
       <c r="L2">
-        <f xml:space="preserve"> 66 + 62 + 70 + 134</f>
-        <v>332</v>
+        <f xml:space="preserve"> (66 + 62 + 70 + 134) / 5</f>
+        <v>66.400000000000006</v>
       </c>
       <c r="M2">
-        <f xml:space="preserve"> 66 + 68 + 66 + 128</f>
-        <v>328</v>
+        <f xml:space="preserve"> (66 + 68 + 66 + 128) / 5</f>
+        <v>65.599999999999994</v>
       </c>
       <c r="N2">
-        <f xml:space="preserve"> 74 + 60 + 67 + 129</f>
-        <v>330</v>
+        <f xml:space="preserve"> (74 + 60 + 67 + 129) / 5</f>
+        <v>66</v>
       </c>
       <c r="O2">
-        <f xml:space="preserve"> 71 + 71 + 66 + 126</f>
-        <v>334</v>
+        <f xml:space="preserve"> (71 + 71 + 66 + 126) / 5</f>
+        <v>66.8</v>
       </c>
       <c r="P2">
-        <f xml:space="preserve"> 68 + 68 + 63 + 134</f>
-        <v>333</v>
+        <f xml:space="preserve"> (68 + 68 + 63 + 134) / 5</f>
+        <v>66.599999999999994</v>
       </c>
       <c r="Q2">
-        <f xml:space="preserve"> 70 + 77 + 70 + 129</f>
-        <v>346</v>
+        <f xml:space="preserve"> (70 + 77 + 70 + 129) / 5</f>
+        <v>69.2</v>
       </c>
       <c r="R2">
-        <f xml:space="preserve"> 69 + 65 + 70 + 136</f>
-        <v>340</v>
+        <f xml:space="preserve"> (69 + 65 + 70 + 136) / 5</f>
+        <v>68</v>
       </c>
       <c r="S2">
-        <f xml:space="preserve"> 70 + 65 + 70 + 139</f>
-        <v>344</v>
+        <f xml:space="preserve"> (70 + 65 + 70 + 139) / 5</f>
+        <v>68.8</v>
       </c>
       <c r="T2">
-        <f xml:space="preserve"> 67 + 65 + 73 + 128</f>
-        <v>333</v>
+        <f xml:space="preserve"> (67 + 65 + 73 + 128) / 5</f>
+        <v>66.599999999999994</v>
       </c>
       <c r="U2">
-        <f xml:space="preserve"> 68 + 66 + 63 + 142</f>
-        <v>339</v>
+        <f xml:space="preserve"> (68 + 66 + 63 + 142) / 5</f>
+        <v>67.8</v>
       </c>
       <c r="V2">
-        <f xml:space="preserve"> 74 + 72 + 72 + 152</f>
-        <v>370</v>
+        <f xml:space="preserve"> (74 + 72 + 72 + 152) / 5</f>
+        <v>74</v>
       </c>
       <c r="W2">
-        <f xml:space="preserve"> 74 + 67 + 68 + 128</f>
-        <v>337</v>
+        <f xml:space="preserve"> (74 + 67 + 68 + 128) / 5</f>
+        <v>67.400000000000006</v>
       </c>
       <c r="X2">
-        <f xml:space="preserve"> 72 + 69 + 66 + 129</f>
-        <v>336</v>
+        <f xml:space="preserve"> (72 + 69 + 66 + 129) / 5</f>
+        <v>67.2</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <f xml:space="preserve"> (42 + 79) / 2.5</f>
+        <v>48.4</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <f xml:space="preserve"> (43 + 67) / 2.5</f>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <f xml:space="preserve"> (53 + 83) / 2.5</f>
+        <v>54.4</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <f xml:space="preserve"> (59 + 86) / 2.5</f>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>63</v>
+        <f xml:space="preserve"> (63 + 76) / 2.5</f>
+        <v>55.6</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <f xml:space="preserve"> (60 + 92) / 2.5</f>
+        <v>60.8</v>
       </c>
       <c r="H3">
-        <v>59</v>
+        <f xml:space="preserve"> (59 + 92) / 2.5</f>
+        <v>60.4</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <f xml:space="preserve"> (63 + 101) / 2.5</f>
+        <v>65.599999999999994</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <f xml:space="preserve"> (58 + 96) / 2.5</f>
+        <v>61.6</v>
       </c>
       <c r="K3">
-        <v>59</v>
+        <f xml:space="preserve"> (59 + 105) / 2.5</f>
+        <v>65.599999999999994</v>
       </c>
       <c r="L3">
-        <v>72</v>
+        <f xml:space="preserve"> (72 + 96) / 2.5</f>
+        <v>67.2</v>
       </c>
       <c r="M3">
-        <v>62</v>
+        <f xml:space="preserve"> (62 + 94) / 2.5</f>
+        <v>62.4</v>
       </c>
       <c r="N3">
-        <v>63</v>
+        <f xml:space="preserve"> (63 + 103) / 2.5</f>
+        <v>66.400000000000006</v>
       </c>
       <c r="O3">
-        <v>81</v>
+        <f xml:space="preserve"> (81 + 115) / 2.5</f>
+        <v>78.400000000000006</v>
       </c>
       <c r="P3">
-        <v>68</v>
+        <f xml:space="preserve"> (68 + 106) / 2.5</f>
+        <v>69.599999999999994</v>
       </c>
       <c r="Q3">
+        <f xml:space="preserve"> (78 + 107) / 2.5</f>
+        <v>74</v>
+      </c>
+      <c r="R3">
+        <f xml:space="preserve"> (80 + 115) / 2.5</f>
         <v>78</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <f xml:space="preserve"> (75 + 113) / 2.5</f>
+        <v>75.2</v>
+      </c>
+      <c r="T3">
+        <f xml:space="preserve"> (79 + 113) / 2.5</f>
+        <v>76.8</v>
+      </c>
+      <c r="U3">
+        <f xml:space="preserve"> (84 + 117) / 2.5</f>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="V3">
+        <f xml:space="preserve"> (85 + 122) / 2.5</f>
+        <v>82.8</v>
+      </c>
+      <c r="W3">
+        <f xml:space="preserve"> (80 + 120) / 2.5</f>
         <v>80</v>
       </c>
-      <c r="S3">
-        <v>75</v>
-      </c>
-      <c r="T3">
-        <v>79</v>
-      </c>
-      <c r="U3">
-        <v>84</v>
-      </c>
-      <c r="V3">
-        <v>85</v>
-      </c>
-      <c r="W3">
-        <v>80</v>
-      </c>
       <c r="X3">
-        <v>76</v>
+        <f xml:space="preserve"> (76 + 116) / 2.5</f>
+        <v>76.8</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <f xml:space="preserve"> 46 + 62</f>
-        <v>108</v>
+        <f xml:space="preserve"> (46 + 62 + 97) / 5</f>
+        <v>41</v>
       </c>
       <c r="C4">
-        <f xml:space="preserve"> 38 + 71</f>
-        <v>109</v>
+        <f xml:space="preserve"> (38 + 71 + 116) / 5</f>
+        <v>45</v>
       </c>
       <c r="D4">
-        <f xml:space="preserve"> 49 + 66</f>
-        <v>115</v>
+        <f xml:space="preserve"> (49 + 66 + 122) / 5</f>
+        <v>47.4</v>
       </c>
       <c r="E4">
-        <f xml:space="preserve"> 55 + 76</f>
-        <v>131</v>
+        <f xml:space="preserve"> (55 + 76 + 125) / 5</f>
+        <v>51.2</v>
       </c>
       <c r="F4">
-        <f xml:space="preserve"> 55 + 88</f>
-        <v>143</v>
+        <f xml:space="preserve"> (55 + 88 + 144) / 5</f>
+        <v>57.4</v>
       </c>
       <c r="G4">
-        <f xml:space="preserve"> 49 + 74</f>
-        <v>123</v>
+        <f xml:space="preserve"> (49 + 74 + 140) / 5</f>
+        <v>52.6</v>
       </c>
       <c r="H4">
-        <f xml:space="preserve"> 53 + 88</f>
-        <v>141</v>
+        <f xml:space="preserve"> (53 + 88 + 156) / 5</f>
+        <v>59.4</v>
       </c>
       <c r="I4">
-        <f xml:space="preserve"> 60 + 97</f>
-        <v>157</v>
+        <f xml:space="preserve"> (60 + 97 + 132) / 5</f>
+        <v>57.8</v>
       </c>
       <c r="J4">
-        <f xml:space="preserve"> 64 + 91</f>
-        <v>155</v>
+        <f xml:space="preserve"> (64 + 91 + 154) / 5</f>
+        <v>61.8</v>
       </c>
       <c r="K4">
-        <f xml:space="preserve"> 53 + 100</f>
-        <v>153</v>
+        <f xml:space="preserve"> (53 + 100 + 154) / 5</f>
+        <v>61.4</v>
       </c>
       <c r="L4">
-        <f xml:space="preserve"> 64 + 96</f>
-        <v>160</v>
+        <f xml:space="preserve"> (64 + 96 + 156) / 5</f>
+        <v>63.2</v>
       </c>
       <c r="M4">
-        <f xml:space="preserve"> 73 + 109</f>
-        <v>182</v>
+        <f xml:space="preserve"> (73 + 109 + 154) / 5</f>
+        <v>67.2</v>
       </c>
       <c r="N4">
-        <f xml:space="preserve"> 79 + 99</f>
-        <v>178</v>
+        <f xml:space="preserve"> (79 + 99 + 176) / 5</f>
+        <v>70.8</v>
       </c>
       <c r="O4">
-        <f xml:space="preserve"> 67 + 106</f>
-        <v>173</v>
+        <f xml:space="preserve"> (67 + 106 + 187) / 5</f>
+        <v>72</v>
       </c>
       <c r="P4">
-        <f xml:space="preserve"> 63 + 99</f>
-        <v>162</v>
+        <f xml:space="preserve"> (63 + 99 + 178) / 5</f>
+        <v>68</v>
       </c>
       <c r="Q4">
-        <f xml:space="preserve"> 77 + 109</f>
-        <v>186</v>
+        <f xml:space="preserve"> (77 + 109 + 179) / 5</f>
+        <v>73</v>
       </c>
       <c r="R4">
-        <f xml:space="preserve"> 71 + 109</f>
-        <v>180</v>
+        <f xml:space="preserve"> (71 + 109 + 187) / 5</f>
+        <v>73.400000000000006</v>
       </c>
       <c r="S4">
-        <f xml:space="preserve"> 73 + 113</f>
-        <v>186</v>
+        <f xml:space="preserve"> (73 + 113 + 186) / 5</f>
+        <v>74.400000000000006</v>
       </c>
       <c r="T4">
-        <f xml:space="preserve"> 73 + 110</f>
-        <v>183</v>
+        <f xml:space="preserve"> (73 + 110 + 186) / 5</f>
+        <v>73.8</v>
       </c>
       <c r="U4">
-        <f xml:space="preserve"> 77 + 110</f>
-        <v>187</v>
+        <f xml:space="preserve"> (77 + 110 + 194) / 5</f>
+        <v>76.2</v>
       </c>
       <c r="V4">
-        <f xml:space="preserve"> 77 + 112</f>
-        <v>189</v>
+        <f xml:space="preserve"> (77 + 112 + 191) / 5</f>
+        <v>76</v>
       </c>
       <c r="W4">
-        <f xml:space="preserve"> 75 + 121</f>
-        <v>196</v>
+        <f xml:space="preserve"> (75 + 121 + 188) / 5</f>
+        <v>76.8</v>
       </c>
       <c r="X4">
-        <f xml:space="preserve"> 81 + 109</f>
-        <v>190</v>
+        <f xml:space="preserve"> (81 + 109 + 197) / 5</f>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <f xml:space="preserve"> 40 + 59</f>
-        <v>99</v>
+        <f xml:space="preserve"> (40 + 59) / 2.5</f>
+        <v>39.6</v>
       </c>
       <c r="C5">
-        <f xml:space="preserve"> 39 + 63</f>
-        <v>102</v>
+        <f xml:space="preserve"> (39 + 63) / 2.5</f>
+        <v>40.799999999999997</v>
       </c>
       <c r="D5">
-        <f xml:space="preserve"> 33 + 69</f>
-        <v>102</v>
+        <f xml:space="preserve"> (33 + 69) / 2.5</f>
+        <v>40.799999999999997</v>
       </c>
       <c r="E5">
-        <f xml:space="preserve"> 45 + 66</f>
-        <v>111</v>
+        <f xml:space="preserve"> (45 + 66) / 2.5</f>
+        <v>44.4</v>
       </c>
       <c r="F5">
-        <f xml:space="preserve"> 51 + 67</f>
-        <v>118</v>
+        <f xml:space="preserve"> (51 + 67) / 2.5</f>
+        <v>47.2</v>
       </c>
       <c r="G5">
-        <f xml:space="preserve"> 51 + 79</f>
-        <v>130</v>
+        <f xml:space="preserve"> (51 + 79) / 2.5</f>
+        <v>52</v>
       </c>
       <c r="H5">
-        <f xml:space="preserve"> 47 + 82</f>
-        <v>129</v>
+        <f xml:space="preserve"> (47 + 82) / 2.5</f>
+        <v>51.6</v>
       </c>
       <c r="I5">
-        <f xml:space="preserve"> 50 + 66</f>
-        <v>116</v>
+        <f xml:space="preserve"> (50 + 66) / 2.5</f>
+        <v>46.4</v>
       </c>
       <c r="J5">
-        <f xml:space="preserve"> 63 + 94</f>
-        <v>157</v>
+        <f xml:space="preserve"> (63 + 94) / 2.5</f>
+        <v>62.8</v>
       </c>
       <c r="K5">
-        <f xml:space="preserve"> 59 + 75</f>
-        <v>134</v>
+        <f xml:space="preserve"> (59 + 75) / 2.5</f>
+        <v>53.6</v>
       </c>
       <c r="L5">
-        <f xml:space="preserve"> 57 + 89</f>
-        <v>146</v>
+        <f xml:space="preserve"> (57 + 89) / 2.5</f>
+        <v>58.4</v>
       </c>
       <c r="M5">
-        <f xml:space="preserve"> 58 + 86</f>
-        <v>144</v>
+        <f xml:space="preserve"> (58 + 86) / 2.5</f>
+        <v>57.6</v>
       </c>
       <c r="N5">
-        <f xml:space="preserve"> 65 + 99</f>
-        <v>164</v>
+        <f xml:space="preserve"> (65 + 99) / 2.5</f>
+        <v>65.599999999999994</v>
       </c>
       <c r="O5">
-        <f xml:space="preserve"> 62 + 95</f>
-        <v>157</v>
+        <f xml:space="preserve"> (62 + 95) / 2.5</f>
+        <v>62.8</v>
       </c>
       <c r="P5">
-        <f xml:space="preserve"> 63 + 101</f>
-        <v>164</v>
+        <f xml:space="preserve"> (63 + 101) / 2.5</f>
+        <v>65.599999999999994</v>
       </c>
       <c r="Q5">
-        <f xml:space="preserve"> 71 + 101</f>
-        <v>172</v>
+        <f xml:space="preserve"> (71 + 101) / 2.5</f>
+        <v>68.8</v>
       </c>
       <c r="R5">
-        <f xml:space="preserve"> 73 + 104</f>
-        <v>177</v>
+        <f xml:space="preserve"> (73 + 104) / 2.5</f>
+        <v>70.8</v>
       </c>
       <c r="S5">
-        <f xml:space="preserve"> 64 + 95</f>
-        <v>159</v>
+        <f xml:space="preserve"> (64 + 95) / 2.5</f>
+        <v>63.6</v>
       </c>
       <c r="T5">
-        <f xml:space="preserve"> 72 + 115</f>
-        <v>187</v>
+        <f xml:space="preserve"> (72 + 115) / 2.5</f>
+        <v>74.8</v>
       </c>
       <c r="U5">
-        <f xml:space="preserve"> 64 + 107</f>
-        <v>171</v>
+        <f xml:space="preserve"> (64 + 107) / 2.5</f>
+        <v>68.400000000000006</v>
       </c>
       <c r="V5">
-        <f xml:space="preserve"> 70 + 101</f>
-        <v>171</v>
+        <f xml:space="preserve"> (70 + 101) / 2.5</f>
+        <v>68.400000000000006</v>
       </c>
       <c r="W5">
-        <f xml:space="preserve"> 72 + 108</f>
-        <v>180</v>
+        <f xml:space="preserve"> (72 + 108) / 2.5</f>
+        <v>72</v>
       </c>
       <c r="X5">
-        <f xml:space="preserve"> 66 + 118</f>
-        <v>184</v>
+        <f xml:space="preserve"> (66 + 118) / 2.5</f>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
@@ -4227,169 +3132,169 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <f xml:space="preserve"> 38 + 55</f>
-        <v>93</v>
+        <f xml:space="preserve"> (38 + 55 + 78) / 5</f>
+        <v>34.200000000000003</v>
       </c>
       <c r="C6">
-        <f xml:space="preserve"> 40 + 58</f>
-        <v>98</v>
+        <f xml:space="preserve"> (40 + 58 + 86) / 5</f>
+        <v>36.799999999999997</v>
       </c>
       <c r="D6">
-        <f xml:space="preserve"> 46 + 62</f>
-        <v>108</v>
+        <f xml:space="preserve"> (46 + 62 + 105) / 5</f>
+        <v>42.6</v>
       </c>
       <c r="E6">
-        <f xml:space="preserve"> 48 + 51</f>
-        <v>99</v>
+        <f xml:space="preserve"> (48 + 51 + 97) / 5</f>
+        <v>39.200000000000003</v>
       </c>
       <c r="F6">
-        <f xml:space="preserve"> 43 + 60</f>
-        <v>103</v>
+        <f xml:space="preserve"> (43 + 60 + 107) / 5</f>
+        <v>42</v>
       </c>
       <c r="G6">
-        <f xml:space="preserve"> 47 + 74</f>
-        <v>121</v>
+        <f xml:space="preserve"> (47 + 74 + 108) / 5</f>
+        <v>45.8</v>
       </c>
       <c r="H6">
-        <f xml:space="preserve"> 52 + 68</f>
-        <v>120</v>
+        <f xml:space="preserve"> (52 + 68 + 128) / 5</f>
+        <v>49.6</v>
       </c>
       <c r="I6">
-        <f xml:space="preserve"> 52 + 67</f>
-        <v>119</v>
+        <f xml:space="preserve"> (52 + 67 + 110) / 5</f>
+        <v>45.8</v>
       </c>
       <c r="J6">
-        <f xml:space="preserve"> 48 + 77</f>
-        <v>125</v>
+        <f xml:space="preserve"> (48 + 77 + 116) / 5</f>
+        <v>48.2</v>
       </c>
       <c r="K6">
-        <f xml:space="preserve"> 49 + 76</f>
-        <v>125</v>
+        <f xml:space="preserve"> (49 + 76 + 132) / 5</f>
+        <v>51.4</v>
       </c>
       <c r="L6">
-        <f xml:space="preserve"> 60 + 66</f>
-        <v>126</v>
+        <f xml:space="preserve"> (60 + 66 + 135) / 5</f>
+        <v>52.2</v>
       </c>
       <c r="M6">
-        <f xml:space="preserve"> 44 + 81</f>
-        <v>125</v>
+        <f xml:space="preserve"> (44 + 81 + 113) / 5</f>
+        <v>47.6</v>
       </c>
       <c r="N6">
-        <f xml:space="preserve"> 49 + 73</f>
-        <v>122</v>
+        <f xml:space="preserve"> (49 + 73 + 141) / 5</f>
+        <v>52.6</v>
       </c>
       <c r="O6">
-        <f xml:space="preserve"> 49 + 86</f>
-        <v>135</v>
+        <f xml:space="preserve"> (49 + 86 + 118) / 5</f>
+        <v>50.6</v>
       </c>
       <c r="P6">
-        <f xml:space="preserve"> 64 + 79</f>
-        <v>143</v>
+        <f xml:space="preserve"> (64 + 79 + 135) / 5</f>
+        <v>55.6</v>
       </c>
       <c r="Q6">
-        <f xml:space="preserve"> 54 + 89</f>
-        <v>143</v>
+        <f xml:space="preserve"> (54 + 89 + 143) / 5</f>
+        <v>57.2</v>
       </c>
       <c r="R6">
-        <f xml:space="preserve"> 70 + 93</f>
-        <v>163</v>
+        <f xml:space="preserve"> (70 + 93 + 143) / 5</f>
+        <v>61.2</v>
       </c>
       <c r="S6">
-        <f xml:space="preserve"> 57 + 99</f>
-        <v>156</v>
+        <f xml:space="preserve"> (57 + 99 + 151) / 5</f>
+        <v>61.4</v>
       </c>
       <c r="T6">
-        <f xml:space="preserve"> 69 + 90</f>
-        <v>159</v>
+        <f xml:space="preserve"> (69 + 90 + 147) / 5</f>
+        <v>61.2</v>
       </c>
       <c r="U6">
-        <f xml:space="preserve"> 65 + 85</f>
-        <v>150</v>
+        <f xml:space="preserve"> (65 + 85 + 159) / 5</f>
+        <v>61.8</v>
       </c>
       <c r="V6">
-        <f xml:space="preserve"> 67 + 90</f>
-        <v>157</v>
+        <f xml:space="preserve"> (67 + 90 + 156) / 5</f>
+        <v>62.6</v>
       </c>
       <c r="W6">
-        <f xml:space="preserve"> 71 + 93</f>
-        <v>164</v>
+        <f xml:space="preserve"> (71 + 93 + 170) / 5</f>
+        <v>66.8</v>
       </c>
       <c r="X6">
-        <f xml:space="preserve"> 63 + 106</f>
-        <v>169</v>
+        <f xml:space="preserve"> (63 + 106 + 153) / 5</f>
+        <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>55</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>51</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>62</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>42</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>49</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>52</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>55</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>49</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>53</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>52</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>52</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>52</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>41</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>45</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>36</v>
       </c>
-      <c r="Q7">
+      <c r="Q8">
         <v>30</v>
       </c>
-      <c r="R7">
+      <c r="R8">
         <v>44</v>
       </c>
-      <c r="S7">
+      <c r="S8">
         <v>45</v>
       </c>
-      <c r="T7">
+      <c r="T8">
         <v>36</v>
       </c>
-      <c r="U7">
+      <c r="U8">
         <v>43</v>
       </c>
-      <c r="V7">
+      <c r="V8">
         <v>28</v>
       </c>
-      <c r="W7">
+      <c r="W8">
         <v>33</v>
       </c>
-      <c r="X7">
+      <c r="X8">
         <v>39</v>
       </c>
     </row>
@@ -4402,6 +3307,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0.1</v>
+      </c>
+      <c r="D1">
+        <v>0.2</v>
+      </c>
+      <c r="E1">
+        <v>0.3</v>
+      </c>
+      <c r="F1">
+        <v>0.4</v>
+      </c>
+      <c r="G1">
+        <v>0.5</v>
+      </c>
+      <c r="H1">
+        <v>0.6</v>
+      </c>
+      <c r="I1">
+        <v>0.7</v>
+      </c>
+      <c r="J1">
+        <v>0.8</v>
+      </c>
+      <c r="K1">
+        <v>0.9</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -4417,7 +3392,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4447,7 +3422,7 @@
         <v>100</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L1">
         <v>0</v>
@@ -4482,7 +3457,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>59</v>
@@ -4512,7 +3487,7 @@
         <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <v>50</v>
@@ -4541,7 +3516,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4549,114 +3524,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0.1</v>
-      </c>
-      <c r="D1">
-        <v>0.2</v>
-      </c>
-      <c r="E1">
-        <v>0.3</v>
-      </c>
-      <c r="F1">
-        <v>0.4</v>
-      </c>
-      <c r="G1">
-        <v>0.5</v>
-      </c>
-      <c r="H1">
-        <v>0.6</v>
-      </c>
-      <c r="I1">
-        <v>0.7</v>
-      </c>
-      <c r="J1">
-        <v>0.8</v>
-      </c>
-      <c r="K1">
-        <v>0.9</v>
-      </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <f>95+144</f>
-        <v>239</v>
-      </c>
-      <c r="C2">
-        <f xml:space="preserve"> 51 + 56 + 148</f>
-        <v>255</v>
-      </c>
-      <c r="D2">
-        <f xml:space="preserve"> 61 + 48 + 165</f>
-        <v>274</v>
-      </c>
-      <c r="E2">
-        <f xml:space="preserve"> 54 + 56 + 170</f>
-        <v>280</v>
-      </c>
-      <c r="F2">
-        <f xml:space="preserve"> 60 + 56 + 178</f>
-        <v>294</v>
-      </c>
-      <c r="G2">
-        <f xml:space="preserve"> 61 + 66 + 198</f>
-        <v>325</v>
-      </c>
-      <c r="H2">
-        <f xml:space="preserve"> 56 + 66 + 170</f>
-        <v>292</v>
-      </c>
-      <c r="I2">
-        <f xml:space="preserve"> 72 + 64 + 196</f>
-        <v>332</v>
-      </c>
-      <c r="J2">
-        <f xml:space="preserve"> 68 + 65 + 196</f>
-        <v>329</v>
-      </c>
-      <c r="K2">
-        <f xml:space="preserve"> 72 + 62 + 207</f>
-        <v>341</v>
-      </c>
-      <c r="L2">
-        <f xml:space="preserve"> 135 + 213</f>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Effect of iterNum on MCS" sheetId="1" r:id="rId1"/>
@@ -582,11 +582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-707261888"/>
-        <c:axId val="-707262432"/>
+        <c:axId val="-411653728"/>
+        <c:axId val="-411648832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-707261888"/>
+        <c:axId val="-411653728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,7 +624,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -645,7 +645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-707262432"/>
+        <c:crossAx val="-411648832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -653,7 +653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-707262432"/>
+        <c:axId val="-411648832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -698,7 +698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-707261888"/>
+        <c:crossAx val="-411653728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -804,6 +804,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Rule-based MC vs. Random MC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -877,6 +903,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Effect of iterNum on MCS'!$B$1:$X$1</c:f>
@@ -1045,11 +1085,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-707260800"/>
-        <c:axId val="-707252096"/>
+        <c:axId val="-411648288"/>
+        <c:axId val="-411660256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-707260800"/>
+        <c:axId val="-411648288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1101,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1073,7 +1113,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1092,7 +1132,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-707252096"/>
+        <c:crossAx val="-411660256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1100,9 +1140,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-707252096"/>
+        <c:axId val="-411660256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1151,7 +1192,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-707260800"/>
+        <c:crossAx val="-411648288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2339,15 +2380,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>380997</xdr:colOff>
+      <xdr:colOff>380998</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2658,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3310,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3359,11 +3400,99 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="B2">
+        <f xml:space="preserve"> 189 / 5</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C2">
+        <f xml:space="preserve"> 195 /5</f>
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <f xml:space="preserve"> 201 / 5</f>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E2">
+        <f xml:space="preserve"> 219 / 5</f>
+        <v>43.8</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> 238 / 5</f>
+        <v>47.6</v>
+      </c>
+      <c r="G2">
+        <f xml:space="preserve"> 234 / 5</f>
+        <v>46.8</v>
+      </c>
+      <c r="H2">
+        <f xml:space="preserve"> 266 / 5</f>
+        <v>53.2</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> 264 / 5</f>
+        <v>52.8</v>
+      </c>
+      <c r="J2">
+        <f xml:space="preserve"> 280 / 5</f>
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <f xml:space="preserve"> 277 / 5</f>
+        <v>55.4</v>
+      </c>
+      <c r="L2">
+        <f xml:space="preserve"> 277 / 5</f>
+        <v>55.4</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <f xml:space="preserve"> 323 / 5</f>
+        <v>64.599999999999994</v>
+      </c>
+      <c r="C3">
+        <f xml:space="preserve"> 336 / 5</f>
+        <v>67.2</v>
+      </c>
+      <c r="D3">
+        <f xml:space="preserve"> 345 / 5</f>
+        <v>69</v>
+      </c>
+      <c r="E3">
+        <f xml:space="preserve"> 345 /5</f>
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <f xml:space="preserve"> 365 / 5</f>
+        <v>73</v>
+      </c>
+      <c r="G3">
+        <f xml:space="preserve"> 364 / 5</f>
+        <v>72.8</v>
+      </c>
+      <c r="H3">
+        <f xml:space="preserve"> 387 / 5</f>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> 385 / 5</f>
+        <v>77</v>
+      </c>
+      <c r="J3">
+        <f>376/5</f>
+        <v>75.2</v>
+      </c>
+      <c r="K3">
+        <f xml:space="preserve"> 369 / 5</f>
+        <v>73.8</v>
+      </c>
+      <c r="L3">
+        <f xml:space="preserve"> 336 / 5</f>
+        <v>67.2</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3373,6 +3502,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/result.xlsx
+++ b/result.xlsx
@@ -582,11 +582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-411653728"/>
-        <c:axId val="-411648832"/>
+        <c:axId val="-399694304"/>
+        <c:axId val="-399693760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-411653728"/>
+        <c:axId val="-399694304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-411648832"/>
+        <c:crossAx val="-399693760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -653,7 +653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-411648832"/>
+        <c:axId val="-399693760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -698,7 +698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-411653728"/>
+        <c:crossAx val="-399694304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -829,7 +829,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1085,11 +1084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-411648288"/>
-        <c:axId val="-411660256"/>
+        <c:axId val="-399701920"/>
+        <c:axId val="-399696480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-411648288"/>
+        <c:axId val="-399701920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1131,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-411660256"/>
+        <c:crossAx val="-399696480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1140,7 +1139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-411660256"/>
+        <c:axId val="-399696480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1192,7 +1191,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-411648288"/>
+        <c:crossAx val="-399701920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3352,7 +3351,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3497,6 +3496,50 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
+      </c>
+      <c r="B4">
+        <f xml:space="preserve"> 340 / 5</f>
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <f xml:space="preserve"> 355 / 5</f>
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <f xml:space="preserve"> 368 / 5</f>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E4">
+        <f xml:space="preserve"> 384 / 5</f>
+        <v>76.8</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> 381 / 5</f>
+        <v>76.2</v>
+      </c>
+      <c r="G4">
+        <f xml:space="preserve"> 379 / 5</f>
+        <v>75.8</v>
+      </c>
+      <c r="H4">
+        <f xml:space="preserve"> 391 / 5</f>
+        <v>78.2</v>
+      </c>
+      <c r="I4">
+        <f xml:space="preserve"> 399 / 5</f>
+        <v>79.8</v>
+      </c>
+      <c r="J4">
+        <f xml:space="preserve"> 396 / 5</f>
+        <v>79.2</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> 364 / 5</f>
+        <v>72.8</v>
+      </c>
+      <c r="L4">
+        <f xml:space="preserve"> 356 / 5</f>
+        <v>71.2</v>
       </c>
     </row>
   </sheetData>
